--- a/Термины.xlsx
+++ b/Термины.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="205">
   <si>
     <t>Оригинал</t>
   </si>
@@ -65,9 +65,6 @@
     <t>Хитрый</t>
   </si>
   <si>
-    <t>Невидимость</t>
-  </si>
-  <si>
     <t>Debuff</t>
   </si>
   <si>
@@ -99,6 +96,306 @@
   </si>
   <si>
     <t>Примечание</t>
+  </si>
+  <si>
+    <t>Летающий</t>
+  </si>
+  <si>
+    <t>Штуковина</t>
+  </si>
+  <si>
+    <t>Хитроумная штука</t>
+  </si>
+  <si>
+    <t>Хитрое изобретение</t>
+  </si>
+  <si>
+    <t>Альтернатива 1</t>
+  </si>
+  <si>
+    <t>Альтернатива 2</t>
+  </si>
+  <si>
+    <t>Скорость</t>
+  </si>
+  <si>
+    <t>Resist</t>
+  </si>
+  <si>
+    <t>Сопротивление</t>
+  </si>
+  <si>
+    <t>Стойкость</t>
+  </si>
+  <si>
+    <t>Tech</t>
+  </si>
+  <si>
+    <t>Ранг</t>
+  </si>
+  <si>
+    <t>Ultimate</t>
+  </si>
+  <si>
+    <t>Зубодробительное</t>
+  </si>
+  <si>
+    <t>Воин</t>
+  </si>
+  <si>
+    <t>Боец</t>
+  </si>
+  <si>
+    <t>Рекрут</t>
+  </si>
+  <si>
+    <t>Overpower</t>
+  </si>
+  <si>
+    <t>Неукротимый</t>
+  </si>
+  <si>
+    <t>Сокрушение</t>
+  </si>
+  <si>
+    <t>Конструкт</t>
+  </si>
+  <si>
+    <t>Механизм</t>
+  </si>
+  <si>
+    <t>Mech</t>
+  </si>
+  <si>
+    <t>Мега</t>
+  </si>
+  <si>
+    <t>Stomper</t>
+  </si>
+  <si>
+    <t>Топотун</t>
+  </si>
+  <si>
+    <t>Вышибала</t>
+  </si>
+  <si>
+    <t>Armor</t>
+  </si>
+  <si>
+    <t>Armor Piercing</t>
+  </si>
+  <si>
+    <t>Arrives:</t>
+  </si>
+  <si>
+    <t>Anti-air</t>
+  </si>
+  <si>
+    <t>Attacks:</t>
+  </si>
+  <si>
+    <t>Boost</t>
+  </si>
+  <si>
+    <t>Channeling</t>
+  </si>
+  <si>
+    <t>Deathtouch</t>
+  </si>
+  <si>
+    <t>Detector</t>
+  </si>
+  <si>
+    <t>Dies</t>
+  </si>
+  <si>
+    <t>Disable</t>
+  </si>
+  <si>
+    <t>Ephemeral</t>
+  </si>
+  <si>
+    <t>Fading</t>
+  </si>
+  <si>
+    <t>Forecast</t>
+  </si>
+  <si>
+    <t>Frenzy</t>
+  </si>
+  <si>
+    <t>Неистовость</t>
+  </si>
+  <si>
+    <t>Ярость</t>
+  </si>
+  <si>
+    <t>Healing</t>
+  </si>
+  <si>
+    <t>Illusion</t>
+  </si>
+  <si>
+    <t>Indestructible</t>
+  </si>
+  <si>
+    <t>Invisible</t>
+  </si>
+  <si>
+    <t>Leaves</t>
+  </si>
+  <si>
+    <t>Legendary</t>
+  </si>
+  <si>
+    <t>Глоссарий?</t>
+  </si>
+  <si>
+    <t>Long-range</t>
+  </si>
+  <si>
+    <t>Max level:</t>
+  </si>
+  <si>
+    <t>Obliterate</t>
+  </si>
+  <si>
+    <t>Readiness</t>
+  </si>
+  <si>
+    <t>Sacrifice</t>
+  </si>
+  <si>
+    <t>Sideline</t>
+  </si>
+  <si>
+    <t>Sparkshot</t>
+  </si>
+  <si>
+    <t>Swift strike</t>
+  </si>
+  <si>
+    <t>Trash</t>
+  </si>
+  <si>
+    <t>Unattackable</t>
+  </si>
+  <si>
+    <t>Unsoppable</t>
+  </si>
+  <si>
+    <t>Untargetable</t>
+  </si>
+  <si>
+    <t>Upkeep</t>
+  </si>
+  <si>
+    <t>Ready</t>
+  </si>
+  <si>
+    <t>Worker</t>
+  </si>
+  <si>
+    <t>Heroes</t>
+  </si>
+  <si>
+    <t>Tech Building</t>
+  </si>
+  <si>
+    <t>Add-on</t>
+  </si>
+  <si>
+    <t>Пристройка</t>
+  </si>
+  <si>
+    <t>Patroll</t>
+  </si>
+  <si>
+    <t>Attack</t>
+  </si>
+  <si>
+    <t>Damage</t>
+  </si>
+  <si>
+    <t>Рикошет</t>
+  </si>
+  <si>
+    <t>Разрывной</t>
+  </si>
+  <si>
+    <t>Тех</t>
+  </si>
+  <si>
+    <t>Свин</t>
+  </si>
+  <si>
+    <t>Конспиратор</t>
+  </si>
+  <si>
+    <t>Слабость</t>
+  </si>
+  <si>
+    <t>Patroller</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>Нацелить</t>
+  </si>
+  <si>
+    <t>Навести</t>
+  </si>
+  <si>
+    <t>Оттеснить</t>
+  </si>
+  <si>
+    <t>Выдавить</t>
+  </si>
+  <si>
+    <t>Выбить</t>
+  </si>
+  <si>
+    <t>Патрульный</t>
+  </si>
+  <si>
+    <t>Дозорный</t>
+  </si>
+  <si>
+    <t>Глазастый</t>
+  </si>
+  <si>
+    <t>Чутьё</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оттесните патрульного </t>
+  </si>
+  <si>
+    <t>(Пояснение)</t>
+  </si>
+  <si>
+    <t>Sideline a patroller</t>
+  </si>
+  <si>
+    <t>Rogue</t>
+  </si>
+  <si>
+    <t>Разбойник</t>
+  </si>
+  <si>
+    <t>Бандит</t>
+  </si>
+  <si>
+    <t>Плут</t>
+  </si>
+  <si>
+    <t>Детектор</t>
+  </si>
+  <si>
+    <t>Зоркий</t>
+  </si>
+  <si>
+    <t>Быстрый удар</t>
   </si>
   <si>
     <r>
@@ -108,7 +405,7 @@
       <rPr>
         <b/>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -119,7 +416,7 @@
     <r>
       <rPr>
         <sz val="11"/>
-        <color theme="1"/>
+        <color theme="0"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <charset val="204"/>
@@ -129,95 +426,251 @@
     </r>
   </si>
   <si>
-    <t>Летающий</t>
-  </si>
-  <si>
-    <t>Штуковина</t>
-  </si>
-  <si>
-    <t>Хитроумная штука</t>
-  </si>
-  <si>
-    <t>Хитрое изобретение</t>
-  </si>
-  <si>
-    <t>Альтернатива 1</t>
-  </si>
-  <si>
-    <t>Альтернатива 2</t>
-  </si>
-  <si>
-    <t>Скорость</t>
-  </si>
-  <si>
-    <t>Resist</t>
-  </si>
-  <si>
-    <t>Сопротивление</t>
-  </si>
-  <si>
-    <t>Стойкость</t>
-  </si>
-  <si>
-    <t>Tech</t>
-  </si>
-  <si>
-    <t>Ранг</t>
-  </si>
-  <si>
-    <t>Ultimate</t>
-  </si>
-  <si>
-    <t>Зубодробительное</t>
-  </si>
-  <si>
-    <t>Воин</t>
-  </si>
-  <si>
-    <t>Боец</t>
-  </si>
-  <si>
-    <t>Рекрут</t>
-  </si>
-  <si>
-    <t>Overpower</t>
-  </si>
-  <si>
-    <t>Неистовый</t>
-  </si>
-  <si>
-    <t>Неукротимый</t>
-  </si>
-  <si>
-    <t>Сокрушение</t>
-  </si>
-  <si>
-    <t>Конструкт</t>
-  </si>
-  <si>
-    <t>Механизм</t>
-  </si>
-  <si>
-    <t>Mech</t>
-  </si>
-  <si>
-    <t>Мега</t>
-  </si>
-  <si>
-    <t>Stomper</t>
-  </si>
-  <si>
-    <t>Топотун</t>
-  </si>
-  <si>
-    <t>Вышибала</t>
+    <t>Невидимость</t>
+  </si>
+  <si>
+    <t>Неистовство</t>
+  </si>
+  <si>
+    <t>Противовоздушный</t>
+  </si>
+  <si>
+    <t>Антивоздух</t>
+  </si>
+  <si>
+    <t>+воздух</t>
+  </si>
+  <si>
+    <t>ПВО</t>
+  </si>
+  <si>
+    <t>Броня</t>
+  </si>
+  <si>
+    <t>Прибытие:</t>
+  </si>
+  <si>
+    <t>Ongoing</t>
+  </si>
+  <si>
+    <t>Стабильное</t>
+  </si>
+  <si>
+    <t>Вечное</t>
+  </si>
+  <si>
+    <t>Усмирённое</t>
+  </si>
+  <si>
+    <t>Удерживаемое</t>
+  </si>
+  <si>
+    <t>Поддерживаемое</t>
+  </si>
+  <si>
+    <t>Удаляется</t>
+  </si>
+  <si>
+    <t>Сбрасывается</t>
+  </si>
+  <si>
+    <t>Summon</t>
+  </si>
+  <si>
+    <t>Призвать</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Нейтральный</t>
+  </si>
+  <si>
+    <t>Lizardman</t>
+  </si>
+  <si>
+    <t>Человек-ящер</t>
+  </si>
+  <si>
+    <t>Ящеровек</t>
+  </si>
+  <si>
+    <t>Челоящер</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>Здание</t>
+  </si>
+  <si>
+    <t>Строение</t>
+  </si>
+  <si>
+    <t>Снабжение</t>
+  </si>
+  <si>
+    <t>Завоз</t>
+  </si>
+  <si>
+    <t>(Остаётся в игре. Сбрасывается при смерти героя)</t>
+  </si>
+  <si>
+    <t>(выведите его из дозора)</t>
+  </si>
+  <si>
+    <t>Finesse</t>
+  </si>
+  <si>
+    <t>Проныра</t>
+  </si>
+  <si>
+    <t>Плутишка</t>
+  </si>
+  <si>
+    <t>Шельма</t>
+  </si>
+  <si>
+    <t>Magic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Безудержный </t>
+  </si>
+  <si>
+    <t>(При атаке может игнорировать дозорных)</t>
+  </si>
+  <si>
+    <t>Drunkard</t>
+  </si>
+  <si>
+    <t>Пьяница</t>
+  </si>
+  <si>
+    <t>Выпивоха</t>
+  </si>
+  <si>
+    <t>Алкоголик</t>
+  </si>
+  <si>
+    <t>Пропойца</t>
+  </si>
+  <si>
+    <t>Burn</t>
+  </si>
+  <si>
+    <t>Ожог</t>
+  </si>
+  <si>
+    <t>Пламя</t>
+  </si>
+  <si>
+    <t>(Оппонент без зоркого не может целиться и атаковать. Крадётся мимо дозорных Видим во время своего дозора)</t>
+  </si>
+  <si>
+    <t>(Может атаковать и ⤵ в ход прибытия)</t>
+  </si>
+  <si>
+    <t>Входит в игру Активным?</t>
+  </si>
+  <si>
+    <t>(Имеет +X АТК в ваш ход)</t>
+  </si>
+  <si>
+    <t>Лечение</t>
+  </si>
+  <si>
+    <t>(Снабжение: лечит на Х всех союзных рекрутов и героев)</t>
+  </si>
+  <si>
+    <t>(Оппонент должен платить Х каждый раз, как ◎ стойкого)</t>
+  </si>
+  <si>
+    <t>(Атакует летающих. Не обязан атаковать летающих дозорных. На дозоре атакует перелетающих героев и рекрутов)</t>
+  </si>
+  <si>
+    <t>(Наносит урон до атаки противника без быстрого удара)</t>
+  </si>
+  <si>
+    <t>(Атакуя дозорного, наносит 1 повреждение одному его соседу)</t>
+  </si>
+  <si>
+    <t>Destroy</t>
+  </si>
+  <si>
+    <t>Уничтожьте</t>
+  </si>
+  <si>
+    <t>Уничтожить</t>
+  </si>
+  <si>
+    <t>Истребить</t>
+  </si>
+  <si>
+    <t>Казнь</t>
+  </si>
+  <si>
+    <t>(При атаке сперва уничтожьте 2 рекрута младших рангов защищающегося)</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>База</t>
+  </si>
+  <si>
+    <t>Штаб</t>
+  </si>
+  <si>
+    <t>Инж. здание</t>
+  </si>
+  <si>
+    <t>Форт</t>
+  </si>
+  <si>
+    <t>Флигель</t>
+  </si>
+  <si>
+    <t>Дозор</t>
+  </si>
+  <si>
+    <t>Живчик</t>
+  </si>
+  <si>
+    <t>Готовность</t>
+  </si>
+  <si>
+    <t>Бодрость</t>
+  </si>
+  <si>
+    <t>Exhaust</t>
+  </si>
+  <si>
+    <t>Bashing</t>
+  </si>
+  <si>
+    <t>Громила</t>
+  </si>
+  <si>
+    <t>Бугай</t>
+  </si>
+  <si>
+    <t>Трюкач</t>
+  </si>
+  <si>
+    <t>Bashing Magic</t>
+  </si>
+  <si>
+    <t>Громящество. Магия</t>
+  </si>
+  <si>
+    <t>Громомагия</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -229,6 +682,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -236,12 +706,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -256,9 +732,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -541,18 +1032,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I17"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <pane ySplit="1" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="19" style="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
+    <col min="1" max="1" width="11.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.5703125" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.85546875" style="1" customWidth="1"/>
@@ -561,204 +1053,788 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B6" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B10" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B12" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B13" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="E28" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H28" s="1" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D33" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B39" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B41" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="B42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="D42" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B43" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B44" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B47" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B48" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B49" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
+      <c r="C49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D53" s="6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B60" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B65" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B66" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B67" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="E3" s="1" t="s">
+      <c r="C67" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B11" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I11" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B17" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>52</v>
+    <row r="68" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B68" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D68" s="6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B69" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B70" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B71" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B72" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B77" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B78" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B79" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="G79" s="1" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B81" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F81" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B82" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B83" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>204</v>
       </c>
     </row>
   </sheetData>
+  <sortState ref="B21:B22">
+    <sortCondition ref="B21"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
